--- a/Resources/Part2/Part2_Resources.xlsx
+++ b/Resources/Part2/Part2_Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\CSC_MS\Resources\Part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D64069C-0E6E-49AE-8349-3F52840BCF04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7442F4A6-5902-4D03-991B-D8A315BA1FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Alm</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Stm32Cube</t>
+  </si>
+  <si>
+    <t>feature_periodic.h</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -259,11 +262,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +314,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -687,17 +707,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DB742-7F16-46DE-AA85-96801C702F10}">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="5.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
@@ -890,7 +910,7 @@
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -900,22 +920,31 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="13"/>
-      <c r="G23" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="13"/>
+      <c r="G24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Part2/Part2_Resources.xlsx
+++ b/Resources/Part2/Part2_Resources.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\CSC_MS\Resources\Part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7442F4A6-5902-4D03-991B-D8A315BA1FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F6BF07-3D10-4F88-B000-B12530FA92D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
   </bookViews>
   <sheets>
     <sheet name="FolderStructure" sheetId="1" r:id="rId1"/>
+    <sheet name="FreeRTOS" sheetId="2" r:id="rId2"/>
+    <sheet name="PWM" sheetId="4" r:id="rId3"/>
+    <sheet name="Links" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Alm</t>
   </si>
@@ -112,13 +115,179 @@
   </si>
   <si>
     <t>feature_periodic.h</t>
+  </si>
+  <si>
+    <t>TSK_SWD</t>
+  </si>
+  <si>
+    <t>TSK_LED</t>
+  </si>
+  <si>
+    <t>TSK_BTN</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>osPriorityLow</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Stack Size(Words)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>queLedTask</t>
+  </si>
+  <si>
+    <t>queBtnTask</t>
+  </si>
+  <si>
+    <t>queSwdTask</t>
+  </si>
+  <si>
+    <t>Start Function</t>
+  </si>
+  <si>
+    <t>vidTaskLed</t>
+  </si>
+  <si>
+    <t>vidTaskButton</t>
+  </si>
+  <si>
+    <t>vidTaskSwd</t>
+  </si>
+  <si>
+    <t>https://qiita.com/ShunHattori/items/68f099f1d77702d2535d</t>
+  </si>
+  <si>
+    <t>PWM Output</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>https://community.st.com/t5/stm32-mcus/how-to-use-stlink-v3-mco-output-on-nucleo-boards-as-a-precise/ta-p/723361</t>
+  </si>
+  <si>
+    <t>Prescaler</t>
+  </si>
+  <si>
+    <t>Counter Period</t>
+  </si>
+  <si>
+    <t>Frequency(MHz)</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>RAM(KB)</t>
+  </si>
+  <si>
+    <t>ROM(KB)</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>Total(Bytes)</t>
+  </si>
+  <si>
+    <t>TOTAL_HEAP_SIZE(Bytes)</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Item Size</t>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/16656489/safely-detect-if-function-is-called-from-an-isr</t>
+  </si>
+  <si>
+    <t>ISR?(Cortex M3)</t>
+  </si>
+  <si>
+    <t>https://www.renesas.com/en/document/mah/idt-arm-cortex-m0-user-guide</t>
+  </si>
+  <si>
+    <t>CubeIDE(Split peripherals)</t>
+  </si>
+  <si>
+    <t>https://community.st.com/t5/stm32cubemx-mcus/is-it-possible-to-automatically-separate-the-code-generated-by/td-p/71174</t>
+  </si>
+  <si>
+    <t>feature_swd.h</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Task and Queue</t>
+  </si>
+  <si>
+    <t>PWM Setting</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PWM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(KHz)</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +316,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -268,39 +460,75 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,14 +544,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,6 +698,133 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258945</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A4F807-6128-412C-9B0A-AB31E3AC73DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="3868920" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4905D8-A152-42AD-B08D-5CFE3376BC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4829175" y="381000"/>
+          <a:ext cx="3190875" cy="935618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -707,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DB742-7F16-46DE-AA85-96801C702F10}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,221 +1165,627 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="5"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="13"/>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+      <c r="G25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD271B2E-654E-4ABF-9420-E63FCDCB24A8}">
+  <dimension ref="B2:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="20">
+        <v>256</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="20">
+        <v>20</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20">
+        <v>256</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20">
+        <v>20</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="27">
+        <v>256</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="27">
+        <v>20</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="29">
+        <f>SUM(D5:D7)*8</f>
+        <v>6144</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="21">
+        <f>8*1024</f>
+        <v>8192</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="32">
+        <v>8.69</v>
+      </c>
+      <c r="D13" s="32">
+        <v>13.77</v>
+      </c>
+      <c r="E13" s="32">
+        <f>D13-C13</f>
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="32">
+        <v>25.56</v>
+      </c>
+      <c r="D14" s="32">
+        <v>29.85</v>
+      </c>
+      <c r="E14" s="32">
+        <f>D14-C14</f>
+        <v>4.2900000000000027</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="32">
+        <f>D13</f>
+        <v>13.77</v>
+      </c>
+      <c r="D17" s="32">
+        <v>13.78</v>
+      </c>
+      <c r="E17" s="32">
+        <f>D17-C17</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="32">
+        <f>D14</f>
+        <v>29.85</v>
+      </c>
+      <c r="D18" s="32">
+        <v>30.36</v>
+      </c>
+      <c r="E18" s="32">
+        <f>D18-C18</f>
+        <v>0.50999999999999801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DB461-D787-4308-AC00-CB052DC78480}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="32">
+        <f>($C$10*1000*1000/(($C$12*1000)*($C$11+1)))-1</f>
+        <v>1599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F6E367-B285-4A83-A182-1C6FF2035CBC}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5E496E56-626F-40D2-AB06-E01F3515E0D2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5349AFC6-485D-4A80-B15C-D62B97A48557}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A1114702-BAE9-400A-8142-DE51F2DFE291}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FC35E7AB-9953-42DC-852F-B92CAC1CED55}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B1891AB4-B401-4544-8A7A-2BBE28001148}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/Part2/Part2_Resources.xlsx
+++ b/Resources/Part2/Part2_Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\CSC_MS\Resources\Part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F6BF07-3D10-4F88-B000-B12530FA92D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD2CCAA-C83E-4132-992D-8C58DAECE548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
   </bookViews>
   <sheets>
     <sheet name="FolderStructure" sheetId="1" r:id="rId1"/>
@@ -584,15 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -625,6 +616,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1418,17 +1418,17 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -1500,41 +1500,41 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>256</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>20</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <f>SUM(D5:D7)*8</f>
         <v>6144</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -1548,7 +1548,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
@@ -1565,16 +1565,16 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1582,13 +1582,13 @@
       <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>8.69</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="29">
         <v>13.77</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="29">
         <f>D13-C13</f>
         <v>5.08</v>
       </c>
@@ -1597,28 +1597,28 @@
       <c r="B14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>25.56</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="29">
         <v>29.85</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="29">
         <f>D14-C14</f>
         <v>4.2900000000000027</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1626,14 +1626,14 @@
       <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <f>D13</f>
         <v>13.77</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="29">
         <v>13.78</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="29">
         <f>D17-C17</f>
         <v>9.9999999999997868E-3</v>
       </c>
@@ -1642,14 +1642,14 @@
       <c r="B18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="29">
         <f>D14</f>
         <v>29.85</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="29">
         <v>30.36</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="29">
         <f>D18-C18</f>
         <v>0.50999999999999801</v>
       </c>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DB461-D787-4308-AC00-CB052DC78480}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,34 +1689,34 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <f>($C$10*1000*1000/(($C$12*1000)*($C$11+1)))-1</f>
         <v>1599</v>
       </c>
@@ -1732,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F6E367-B285-4A83-A182-1C6FF2035CBC}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Part2/Part2_Resources.xlsx
+++ b/Resources/Part2/Part2_Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\CSC_MS\Resources\Part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD2CCAA-C83E-4132-992D-8C58DAECE548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3F2656-70DD-45CE-B931-2E38E85BD004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{69235439-E537-4EFE-8BCE-9350B1A114A4}"/>
   </bookViews>
   <sheets>
     <sheet name="FolderStructure" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Alm</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>Calculation</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>https://qiita.com/numeru55/items/fd61922eeec6be62a22a</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DB461-D787-4308-AC00-CB052DC78480}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1730,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F6E367-B285-4A83-A182-1C6FF2035CBC}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,6 +1784,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5E496E56-626F-40D2-AB06-E01F3515E0D2}"/>
@@ -1785,6 +1799,7 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{A1114702-BAE9-400A-8142-DE51F2DFE291}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{FC35E7AB-9953-42DC-852F-B92CAC1CED55}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{B1891AB4-B401-4544-8A7A-2BBE28001148}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C0080FB7-CAE8-48E0-A7D2-9451E28228DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
